--- a/functions/menus/menu3 - Copy (3).xlsx
+++ b/functions/menus/menu3 - Copy (3).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aknar\Documents\GitHub\mall-restaurant\functions\menus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B592BF-E454-46AC-83DB-569B26B44236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{16B592BF-E454-46AC-83DB-569B26B44236}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F68F70EF-4581-48AC-956B-0AF23A07D4A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" firstSheet="13" activeTab="16" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="19" activeTab="26" xr2:uid="{1B0BC20A-B018-4E59-BC63-AC8AAB0C6F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Drinks" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="337">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -973,13 +973,103 @@
   </si>
   <si>
     <t>CHICKEN NUTS</t>
+  </si>
+  <si>
+    <t>APPY 10</t>
+  </si>
+  <si>
+    <t>APPY 15</t>
+  </si>
+  <si>
+    <t>APPY 35</t>
+  </si>
+  <si>
+    <t>FRUITY 15</t>
+  </si>
+  <si>
+    <t>FRUITY 10</t>
+  </si>
+  <si>
+    <t>FRUITY 35</t>
+  </si>
+  <si>
+    <t>CAN 25</t>
+  </si>
+  <si>
+    <t>CAN 50</t>
+  </si>
+  <si>
+    <t>JUICE 130</t>
+  </si>
+  <si>
+    <t>JUICE 10</t>
+  </si>
+  <si>
+    <t>KULFI 10</t>
+  </si>
+  <si>
+    <t>KULFI 20</t>
+  </si>
+  <si>
+    <t>KULFI 30</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>BRICK B. SCOTCH</t>
+  </si>
+  <si>
+    <t>BRICK STRAWBRY</t>
+  </si>
+  <si>
+    <t>ICECREAM 20</t>
+  </si>
+  <si>
+    <t>ICEECREAM 30</t>
+  </si>
+  <si>
+    <t>ICECREAM 25</t>
+  </si>
+  <si>
+    <t>ICECREAM CUP 20</t>
+  </si>
+  <si>
+    <t>ICECREAM CUP 30</t>
+  </si>
+  <si>
+    <t>CONE 10</t>
+  </si>
+  <si>
+    <t>CONE 20</t>
+  </si>
+  <si>
+    <t>CONE 25</t>
+  </si>
+  <si>
+    <t>CONE 30</t>
+  </si>
+  <si>
+    <t>EGG MAGGIE</t>
+  </si>
+  <si>
+    <t>FRESH CHEESE</t>
+  </si>
+  <si>
+    <t>STUFF NAAN</t>
+  </si>
+  <si>
+    <t>EXTRA BUTTER HALF</t>
+  </si>
+  <si>
+    <t>EXTRA BUTTER FULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +1094,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1025,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1033,6 +1130,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD66CD1-9B55-47F1-8B3F-91037A9DB16B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C15"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,6 +1590,96 @@
         <v>90</v>
       </c>
       <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1868,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA03EAE9-C41A-4E6A-BAE1-36DF1529E37B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
@@ -2147,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687B33D1-052D-444C-94C2-5DA7E27E4BAA}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,6 +2474,15 @@
         <v>70</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2290,15 +2490,15 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B845CAB-F7E7-41BC-9A51-2B06B3733F4A}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
@@ -2306,7 +2506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>122</v>
       </c>
@@ -2314,7 +2514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>123</v>
       </c>
@@ -2322,7 +2522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
@@ -2330,7 +2530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -2338,7 +2538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -2346,7 +2546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>125</v>
       </c>
@@ -2354,7 +2554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
@@ -2362,12 +2562,147 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="1">
         <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2489,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E0540D-4BB5-415A-B15C-ECA8B8804668}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B44"/>
+      <selection activeCell="A45" sqref="A45:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +3088,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>239</v>
       </c>
@@ -2761,7 +3096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>240</v>
       </c>
@@ -2769,7 +3104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>241</v>
       </c>
@@ -2777,7 +3112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>242</v>
       </c>
@@ -2785,7 +3120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>243</v>
       </c>
@@ -2793,7 +3128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>244</v>
       </c>
@@ -2801,7 +3136,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>245</v>
       </c>
@@ -2809,7 +3144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>246</v>
       </c>
@@ -2817,7 +3152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>247</v>
       </c>
@@ -2825,7 +3160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>248</v>
       </c>
@@ -2833,7 +3168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>249</v>
       </c>
@@ -2841,12 +3176,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B44" s="1">
         <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3062,10 +3415,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059E8D18-4749-4FAC-8D98-E58ABF5440FA}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,7 +3551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>289</v>
       </c>
@@ -3206,7 +3559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>290</v>
       </c>
@@ -3214,7 +3567,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>291</v>
       </c>
@@ -3222,7 +3575,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>292</v>
       </c>
@@ -3230,7 +3583,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>293</v>
       </c>
@@ -3238,7 +3591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>294</v>
       </c>
@@ -3246,7 +3599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>295</v>
       </c>
@@ -3254,7 +3607,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>296</v>
       </c>
@@ -3262,7 +3615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>297</v>
       </c>
@@ -3270,7 +3623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>298</v>
       </c>
@@ -3278,7 +3631,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>299</v>
       </c>
@@ -3286,7 +3639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -3294,7 +3647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>301</v>
       </c>
@@ -3302,7 +3655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>302</v>
       </c>
@@ -3310,12 +3663,30 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B31" s="1">
         <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
